--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>Designator</t>
   </si>
@@ -137,6 +137,9 @@
     <t>1206 220nF</t>
   </si>
   <si>
+    <t>BAT54S diode array</t>
+  </si>
+  <si>
     <t>P2</t>
   </si>
   <si>
@@ -182,6 +185,12 @@
     <t>1206 red diode</t>
   </si>
   <si>
+    <t xml:space="preserve"> 3.3KOhm 1210</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.7KOhm 1210</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 620Ohm 1210</t>
   </si>
   <si>
@@ -191,13 +200,25 @@
     <t>P1, P4</t>
   </si>
   <si>
-    <t>BAT54S</t>
-  </si>
-  <si>
-    <t>3.3KOhm 1210</t>
-  </si>
-  <si>
-    <t>4.7KOhm 1210</t>
+    <t>RCS1, RCS2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10mOhm 2512</t>
+  </si>
+  <si>
+    <t>CBY1</t>
+  </si>
+  <si>
+    <t>1206 0.1uF</t>
+  </si>
+  <si>
+    <t>A1,A2</t>
+  </si>
+  <si>
+    <t>INA240</t>
   </si>
 </sst>
 </file>
@@ -562,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +707,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
@@ -703,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>24</v>
@@ -734,16 +755,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>29</v>
@@ -751,13 +772,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3">
         <v>3</v>
@@ -768,16 +789,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>29</v>
@@ -785,64 +806,54 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -853,16 +864,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>29</v>
@@ -870,18 +881,69 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -891,17 +953,16 @@
     <hyperlink ref="C7" r:id="rId2" tooltip="Supplier" display="'512-BAT54S"/>
     <hyperlink ref="C8" tooltip="Supplier" display="'"/>
     <hyperlink ref="C9" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C14" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C15" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C10" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C16" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C17" r:id="rId3" tooltip="Supplier" display="'490-TB002-500-03BE"/>
-    <hyperlink ref="C18" r:id="rId4" tooltip="Supplier" display="'490-TB002-500-02BE"/>
+    <hyperlink ref="C12" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C19" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C20" r:id="rId3" tooltip="Supplier" display="'490-TB002-500-03BE"/>
+    <hyperlink ref="C21" r:id="rId4" tooltip="Supplier" display="'490-TB002-500-02BE"/>
     <hyperlink ref="C5" tooltip="Supplier" display="'"/>
     <hyperlink ref="C2" tooltip="Supplier" display="'"/>
     <hyperlink ref="C3" tooltip="Supplier" display="'"/>
     <hyperlink ref="C4" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C12" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C18" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C17" tooltip="Supplier" display="'"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gospar\Documents\github\Arduino-SimpleFOCShield\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gospar\Documents\Altium\ArduinoFOC\Project Outputs for ArduinoFOC\SimpleFOCShieldV2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>Designator</t>
   </si>
@@ -137,9 +137,6 @@
     <t>1206 220nF</t>
   </si>
   <si>
-    <t>BAT54S diode array</t>
-  </si>
-  <si>
     <t>P2</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t xml:space="preserve"> 4.7KOhm 1210</t>
   </si>
   <si>
-    <t xml:space="preserve"> 620Ohm 1210</t>
-  </si>
-  <si>
     <t>P3</t>
   </si>
   <si>
@@ -206,19 +200,40 @@
     <t/>
   </si>
   <si>
-    <t>10mOhm 2512</t>
-  </si>
-  <si>
     <t>CBY1</t>
   </si>
   <si>
     <t>1206 0.1uF</t>
   </si>
   <si>
-    <t>A1,A2</t>
-  </si>
-  <si>
     <t>INA240</t>
+  </si>
+  <si>
+    <t>INA1,INA2</t>
+  </si>
+  <si>
+    <t>CAP2</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>VZH100M1HTR-0606</t>
+  </si>
+  <si>
+    <t>BAT54S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 750Ohm 1210</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L7805</t>
+  </si>
+  <si>
+    <t>0.01Ohm 2512</t>
   </si>
 </sst>
 </file>
@@ -583,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,13 +702,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -704,13 +719,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -721,13 +736,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>65</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -738,13 +753,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -755,16 +770,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>29</v>
@@ -772,13 +787,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3">
         <v>3</v>
@@ -789,16 +804,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>29</v>
@@ -806,91 +821,87 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>44</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>29</v>
@@ -898,16 +909,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>29</v>
@@ -915,16 +926,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>29</v>
@@ -932,39 +943,74 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" tooltip="Supplier" display="'667-EEH-ZA1E101XP"/>
-    <hyperlink ref="C7" r:id="rId2" tooltip="Supplier" display="'512-BAT54S"/>
-    <hyperlink ref="C8" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C7" r:id="rId1" tooltip="Supplier" display="'667-EEH-ZA1E101XP"/>
+    <hyperlink ref="C8" r:id="rId2" tooltip="Supplier" display="'512-BAT54S"/>
     <hyperlink ref="C9" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C12" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C19" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C20" r:id="rId3" tooltip="Supplier" display="'490-TB002-500-03BE"/>
-    <hyperlink ref="C21" r:id="rId4" tooltip="Supplier" display="'490-TB002-500-02BE"/>
+    <hyperlink ref="C10" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C13" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C21" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C22" r:id="rId3" tooltip="Supplier" display="'490-TB002-500-03BE"/>
+    <hyperlink ref="C23" r:id="rId4" tooltip="Supplier" display="'490-TB002-500-02BE"/>
     <hyperlink ref="C5" tooltip="Supplier" display="'"/>
     <hyperlink ref="C2" tooltip="Supplier" display="'"/>
     <hyperlink ref="C3" tooltip="Supplier" display="'"/>
     <hyperlink ref="C4" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C18" tooltip="Supplier" display="'"/>
-    <hyperlink ref="C17" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C20" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C19" tooltip="Supplier" display="'"/>
+    <hyperlink ref="C6" r:id="rId5" tooltip="Supplier" display="'667-EEH-ZA1E101XP"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>